--- a/biology/Zoologie/Centropyge_argi/Centropyge_argi.xlsx
+++ b/biology/Zoologie/Centropyge_argi/Centropyge_argi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le poisson-ange nain à tête jaune[1] (Centropyge argi) est une espèce de poissons de la famille des pomacanthidés.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le poisson-ange nain à tête jaune (Centropyge argi) est une espèce de poissons de la famille des pomacanthidés.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille maximale pour cette espèce est de 6,5 cm[1] à 8 cm[2] selon les sources.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille maximale pour cette espèce est de 6,5 cm à 8 cm selon les sources.
 Il est caractérisé par une couleur bleu métallique, se dégradant vers l'orange ou le jaune sur la tête.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est présente dans les récifs coralliens[2] de l'Ouest de Atlantique Nord, principalement dans le Golfe du Mexique et la Mer des Caraïbes[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est présente dans les récifs coralliens de l'Ouest de Atlantique Nord, principalement dans le Golfe du Mexique et la Mer des Caraïbes.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le poisson-ange nain à tête jaune est omnivore, mais se nourrit principalement d'algues en milieu naturel[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le poisson-ange nain à tête jaune est omnivore, mais se nourrit principalement d'algues en milieu naturel.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles sont particulièrement agressifs les uns envers les autres, et les combats se finissent fréquemment avec la mort de l'un des deux individus[4]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles sont particulièrement agressifs les uns envers les autres, et les combats se finissent fréquemment avec la mort de l'un des deux individus
 </t>
         </is>
       </c>
